--- a/hardware/altium/BlinkPico/Project Outputs for BlinkPico/BOM/Bill of Materials-BlinkPico.xlsx
+++ b/hardware/altium/BlinkPico/Project Outputs for BlinkPico/BOM/Bill of Materials-BlinkPico.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17472" windowHeight="19380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="24300"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BlinkPico" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Designator</t>
   </si>
@@ -68,10 +68,10 @@
     <t>DS</t>
   </si>
   <si>
-    <t>LedMatrix</t>
-  </si>
-  <si>
-    <t>DISPLAY, DOT MATRIX, 0.8, 8X8, GREEN; Display Dots x Lines: 8 x 8; LED Colour: Gr</t>
+    <t>LDM1088BX</t>
+  </si>
+  <si>
+    <t>DISPLAY, DOT MATRIX, 0.8, 8X8, GREEN; Display Dots x Lines: 8 x 8; LED Colour: Red</t>
   </si>
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1287093</t>
@@ -86,28 +86,13 @@
     <t/>
   </si>
   <si>
-    <t>J2, J3</t>
-  </si>
-  <si>
-    <t>Right angled 2.54</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>Generc resistor 330 Ohm 0805</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>HT16K33</t>
   </si>
   <si>
-    <t>B1, B2</t>
+    <t>B1, B2, B3</t>
   </si>
   <si>
     <t>350766-1</t>
@@ -128,7 +113,7 @@
     <t>https://datasheet.ciiva.com/30171/eng-cat-124962-0304-371-30171553.pdf?src-supplier=Onlinecomponents.com</t>
   </si>
   <si>
-    <t>C1, C2</t>
+    <t>C1</t>
   </si>
   <si>
     <t>TCP1A106M8R</t>
@@ -146,27 +131,6 @@
     <t>https://datasheet.ciiva.com/16493/tc-p-16493678.pdf?src-supplier=Future+Electronics</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>SMD LED red 2.4 V 0805, 150080RS75000, Würth Elektronik</t>
-  </si>
-  <si>
-    <t>Wurth Electronics</t>
-  </si>
-  <si>
-    <t>150080RS75000</t>
-  </si>
-  <si>
-    <t>732-4984-6-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/22656/150080rs75000-22656961.pdf?src-supplier=Element14</t>
-  </si>
-  <si>
     <t>R1, R2</t>
   </si>
   <si>
@@ -186,24 +150,6 @@
   </si>
   <si>
     <t>https://datasheet.ciiva.com/7941/444164-7941870.pdf?src-supplier=Element14</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>LM1117IMP-5.0/NOPB</t>
-  </si>
-  <si>
-    <t>800-mA 15-V linear voltage regulator 4-SOT-223 -40 to 125</t>
-  </si>
-  <si>
-    <t>TI National Semiconductor</t>
-  </si>
-  <si>
-    <t>LM1117IMP-5.0/NOPBDKR-ND</t>
-  </si>
-  <si>
-    <t>https://datasheet.ciiva.com/6580/lm1117-n-6580070.pdf?src-supplier=Digi-Key</t>
   </si>
 </sst>
 </file>
@@ -546,19 +492,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" customWidth="1"/>
-    <col min="8" max="12" width="16" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -596,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -620,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -642,7 +588,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -655,7 +601,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -664,7 +610,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -674,222 +620,106 @@
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>598.92999999999995</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1">
+        <v>664.27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1">
-        <v>598.92999999999995</v>
+        <v>108.9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1">
-        <v>664.27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1">
-        <v>196.01</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1">
-        <v>108.9</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1535.43</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hardware/altium/BlinkPico/Project Outputs for BlinkPico/BOM/Bill of Materials-BlinkPico.xlsx
+++ b/hardware/altium/BlinkPico/Project Outputs for BlinkPico/BOM/Bill of Materials-BlinkPico.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="24300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17472" windowHeight="19308"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BlinkPico" sheetId="1" r:id="rId1"/>
@@ -496,15 +496,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="12" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+    <col min="8" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -566,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -588,7 +588,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -682,7 +682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
